--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_37.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3462607.874096135</v>
+        <v>3455681.927014595</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847141</v>
+        <v>2310564.143223169</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>102.124212975803</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>10.84267474432123</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>66.21659530538432</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -750,7 +750,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -795,7 +795,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>136.6665195150677</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>22.08478869357498</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>159.3149947016329</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>374.7515952812459</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>264.7093273289292</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -984,10 +984,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>45.04968784997044</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>17.56749288483465</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1057,13 +1057,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>79.92938740919237</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>107.3603371905017</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>225.93078155091</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>258.9655366467403</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.52529077486058</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>102.2141420390929</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1373,13 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
         <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
@@ -1388,7 +1388,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1433,10 +1433,10 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
-        <v>33.63182494411974</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>71.73832450627518</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497557</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>52.22057316872959</v>
       </c>
       <c r="D14" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1625,7 +1625,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
@@ -1664,16 +1664,16 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
-        <v>264.0286188592177</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1822,13 +1822,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059288</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003579</v>
+        <v>280.4599644277189</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281737</v>
+        <v>273.2139126555347</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415739</v>
+        <v>265.5568836689349</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806959</v>
+        <v>282.5278558080569</v>
       </c>
       <c r="F32" t="n">
-        <v>303.139122731397</v>
+        <v>296.695660258758</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029518</v>
+        <v>293.0012941303128</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752492</v>
+        <v>204.8123861026102</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453478</v>
+        <v>20.9239119118958</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443491</v>
+        <v>48.81858568179592</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622525</v>
+        <v>105.2357625896135</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158224</v>
+        <v>137.1653684431834</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495918</v>
+        <v>222.6559073769528</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274704</v>
+        <v>251.2592108548314</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623487</v>
+        <v>269.5282451897097</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346799</v>
+        <v>276.4959681620409</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046323</v>
+        <v>67.32610467782425</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074564</v>
+        <v>52.47323292810665</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258536</v>
+        <v>38.04694813994638</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546448</v>
+        <v>37.97339019282549</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523174</v>
+        <v>39.72284161259276</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762388</v>
+        <v>50.54167953498489</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419592</v>
+        <v>37.89393170155694</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536785</v>
+        <v>15.73364728272887</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982377</v>
+        <v>6.632145647184785</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535109</v>
+        <v>84.7580891527121</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595232</v>
+        <v>117.3320274868842</v>
       </c>
       <c r="U34" t="n">
-        <v>172.998032486593</v>
+        <v>166.554570013954</v>
       </c>
       <c r="V34" t="n">
-        <v>153.733180373459</v>
+        <v>147.28971790082</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942091</v>
+        <v>164.4672642215701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409217</v>
+        <v>115.7096851682827</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.294569217598</v>
+        <v>104.8511067449591</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
@@ -3272,7 +3272,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3284,7 +3284,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
@@ -3490,7 +3490,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
@@ -3509,7 +3509,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190367</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697376</v>
@@ -3521,7 +3521,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U38" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V40" t="n">
         <v>132.9595824117996</v>
@@ -3727,7 +3727,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>84.38297160083388</v>
+        <v>300.0229587840511</v>
       </c>
       <c r="C41" t="n">
         <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>285.1198780252671</v>
       </c>
       <c r="E41" t="n">
-        <v>302.090850164389</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F41" t="n">
         <v>316.2586546150901</v>
@@ -3755,10 +3755,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>143.5290007893328</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822791</v>
+        <v>40.48690626822795</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812808</v>
       </c>
       <c r="T41" t="n">
         <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111635</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.058962518373</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415636</v>
+        <v>86.8890990341564</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443877</v>
+        <v>72.03622728443881</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627849</v>
+        <v>57.60994249627853</v>
       </c>
       <c r="E43" t="n">
-        <v>57.5363845491576</v>
+        <v>57.53638454915765</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892487</v>
+        <v>59.28583596892491</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131701</v>
+        <v>70.10467389131705</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788905</v>
+        <v>57.45692605788909</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906098</v>
+        <v>35.29664163906102</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.1951400035169</v>
+        <v>26.19514000351694</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090442</v>
+        <v>104.3210835090443</v>
       </c>
       <c r="T43" t="n">
         <v>136.8950218432163</v>
@@ -3961,7 +3961,7 @@
         <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246149</v>
       </c>
       <c r="Y43" t="n">
         <v>124.4141011012912</v>
@@ -3977,25 +3977,25 @@
         <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118668</v>
+        <v>205.2376787958979</v>
       </c>
       <c r="D44" t="n">
         <v>285.119878025267</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F44" t="n">
         <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
-        <v>106.258190970747</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
         <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822791</v>
+        <v>40.48690626822793</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812804</v>
+        <v>68.38158003812805</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>156.7283627995155</v>
@@ -4043,7 +4043,7 @@
         <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.058962518373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415636</v>
+        <v>86.88909903415637</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443877</v>
+        <v>72.03622728443878</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627849</v>
+        <v>57.60994249627851</v>
       </c>
       <c r="E46" t="n">
-        <v>57.5363845491576</v>
+        <v>57.53638454915762</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892487</v>
+        <v>59.28583596892489</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131701</v>
+        <v>70.10467389131702</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788905</v>
+        <v>57.45692605788906</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906098</v>
+        <v>35.29664163906099</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.1951400035169</v>
+        <v>26.19514000351691</v>
       </c>
       <c r="S46" t="n">
         <v>104.3210835090442</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2113.584730140504</v>
+        <v>524.8948791408778</v>
       </c>
       <c r="C2" t="n">
-        <v>1720.409228643435</v>
+        <v>524.8948791408778</v>
       </c>
       <c r="D2" t="n">
-        <v>1334.968099860102</v>
+        <v>524.8948791408778</v>
       </c>
       <c r="E2" t="n">
-        <v>1334.968099860102</v>
+        <v>524.8948791408778</v>
       </c>
       <c r="F2" t="n">
-        <v>918.0736613900801</v>
+        <v>512.0408447112596</v>
       </c>
       <c r="G2" t="n">
-        <v>504.9109058780833</v>
+        <v>502.9184932396668</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>178.8354428061575</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703879</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>401.4730945645006</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L2" t="n">
-        <v>894.7933862830295</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M2" t="n">
-        <v>1158.674436563756</v>
+        <v>1538.617529548892</v>
       </c>
       <c r="N2" t="n">
-        <v>1684.497325959611</v>
+        <v>1584.876694038785</v>
       </c>
       <c r="O2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.53692685194</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.53692685194</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T2" t="n">
-        <v>2124.53692685194</v>
+        <v>1596.909223717103</v>
       </c>
       <c r="U2" t="n">
-        <v>2124.53692685194</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="V2" t="n">
-        <v>2113.584730140504</v>
+        <v>999.0496848552197</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.584730140504</v>
+        <v>628.0506498235071</v>
       </c>
       <c r="X2" t="n">
-        <v>2113.584730140504</v>
+        <v>628.0506498235071</v>
       </c>
       <c r="Y2" t="n">
-        <v>2113.584730140504</v>
+        <v>628.0506498235071</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770698</v>
+        <v>505.9467430955087</v>
       </c>
       <c r="C3" t="n">
-        <v>691.202491237162</v>
+        <v>505.9467430955087</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>439.0612932920902</v>
       </c>
       <c r="E3" t="n">
-        <v>424.66703296953</v>
+        <v>302.6148024029779</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526618</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512721</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="K3" t="n">
-        <v>364.2625774118999</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L3" t="n">
-        <v>847.8286633102132</v>
+        <v>843.803557859162</v>
       </c>
       <c r="M3" t="n">
-        <v>847.8286633102132</v>
+        <v>843.803557859162</v>
       </c>
       <c r="N3" t="n">
-        <v>1373.651552706068</v>
+        <v>1289.384420380772</v>
       </c>
       <c r="O3" t="n">
-        <v>1890.171835297049</v>
+        <v>1790.551203376223</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297049</v>
+        <v>1790.551203376223</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750004</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649873</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848781</v>
+        <v>1689.084762927955</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527423</v>
+        <v>1479.021619606597</v>
       </c>
       <c r="V3" t="n">
-        <v>1440.595262118264</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="W3" t="n">
-        <v>1210.478016251551</v>
+        <v>1026.364372110951</v>
       </c>
       <c r="X3" t="n">
-        <v>1021.170938601563</v>
+        <v>837.0572944609628</v>
       </c>
       <c r="Y3" t="n">
-        <v>841.8567216770698</v>
+        <v>657.7430775364701</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.49073853703879</v>
+        <v>62.80619326586972</v>
       </c>
       <c r="C4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="D4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>783.0135240062348</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>499.6831219374124</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>265.6027997203954</v>
+        <v>62.80619326586972</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.49073853703879</v>
+        <v>62.80619326586972</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9283006300504</v>
+        <v>329.8578707179436</v>
       </c>
       <c r="C5" t="n">
-        <v>953.9283006300504</v>
+        <v>329.8578707179436</v>
       </c>
       <c r="D5" t="n">
-        <v>568.4871718467182</v>
+        <v>329.8578707179436</v>
       </c>
       <c r="E5" t="n">
-        <v>568.4871718467182</v>
+        <v>329.8578707179436</v>
       </c>
       <c r="F5" t="n">
-        <v>189.9502069161667</v>
+        <v>317.0038362883254</v>
       </c>
       <c r="G5" t="n">
-        <v>180.827855444574</v>
+        <v>307.8814848167327</v>
       </c>
       <c r="H5" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458669</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733287</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>1039.443159191858</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="M5" t="n">
-        <v>1565.266048587713</v>
+        <v>1045.297237830363</v>
       </c>
       <c r="N5" t="n">
-        <v>1565.266048587713</v>
+        <v>1546.464020825813</v>
       </c>
       <c r="O5" t="n">
-        <v>1776.349434720418</v>
+        <v>1986.503621718142</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137462</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.030458078512</v>
+        <v>1858.402739872164</v>
       </c>
       <c r="T5" t="n">
-        <v>1696.529855637929</v>
+        <v>1858.402739872164</v>
       </c>
       <c r="U5" t="n">
-        <v>1696.529855637929</v>
+        <v>1858.402739872164</v>
       </c>
       <c r="V5" t="n">
-        <v>1354.423046341447</v>
+        <v>1516.295930575683</v>
       </c>
       <c r="W5" t="n">
-        <v>1354.423046341447</v>
+        <v>1516.295930575683</v>
       </c>
       <c r="X5" t="n">
-        <v>1354.423046341447</v>
+        <v>1126.843325508739</v>
       </c>
       <c r="Y5" t="n">
-        <v>1354.423046341447</v>
+        <v>730.3526164293405</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>595.3726849936495</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>444.7184545537417</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>314.629487175222</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512721</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K6" t="n">
-        <v>155.6057207567662</v>
+        <v>473.3524541805761</v>
       </c>
       <c r="L6" t="n">
-        <v>639.1718066550794</v>
+        <v>956.9185400788894</v>
       </c>
       <c r="M6" t="n">
-        <v>847.8286633102132</v>
+        <v>1458.08532307434</v>
       </c>
       <c r="N6" t="n">
-        <v>1373.651552706068</v>
+        <v>1959.252106069791</v>
       </c>
       <c r="O6" t="n">
-        <v>1890.171835297049</v>
+        <v>1959.252106069791</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297049</v>
+        <v>1959.252106069791</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.53692685194</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S6" t="n">
-        <v>1989.606249751809</v>
+        <v>1955.494516627188</v>
       </c>
       <c r="T6" t="n">
-        <v>1812.622437950717</v>
+        <v>1778.510704826096</v>
       </c>
       <c r="U6" t="n">
-        <v>1602.559294629359</v>
+        <v>1568.447561504738</v>
       </c>
       <c r="V6" t="n">
-        <v>1380.019293000426</v>
+        <v>1345.907559875805</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1115.790314009092</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>926.4832363591036</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>747.1690194346108</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>711.5919866702575</v>
+        <v>424.5346241543353</v>
       </c>
       <c r="C7" t="n">
-        <v>541.3868687362467</v>
+        <v>254.3295062203246</v>
       </c>
       <c r="D7" t="n">
-        <v>385.7537556387614</v>
+        <v>254.3295062203246</v>
       </c>
       <c r="E7" t="n">
-        <v>230.1949434979639</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="F7" t="n">
-        <v>72.86900871093684</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="G7" t="n">
-        <v>72.86900871093684</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="H7" t="n">
-        <v>72.86900871093684</v>
+        <v>173.5927512615444</v>
       </c>
       <c r="I7" t="n">
-        <v>72.86900871093684</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703879</v>
+        <v>40.49832589862227</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>820.0367717111683</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>820.0367717111683</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>820.0367717111683</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="U7" t="n">
-        <v>820.0367717111683</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="V7" t="n">
-        <v>820.0367717111683</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="W7" t="n">
-        <v>820.0367717111683</v>
+        <v>658.6149463713523</v>
       </c>
       <c r="X7" t="n">
-        <v>711.5919866702575</v>
+        <v>424.5346241543353</v>
       </c>
       <c r="Y7" t="n">
-        <v>711.5919866702575</v>
+        <v>424.5346241543353</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1269.088786423684</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="C8" t="n">
-        <v>875.9132849266141</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="D8" t="n">
-        <v>875.9132849266141</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431587</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
         <v>47.31297010154361</v>
@@ -4808,46 +4808,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2118.077574438405</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>1970.922039360746</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.655591362702</v>
+        <v>1628.815230064265</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.655591362702</v>
+        <v>1257.816195032552</v>
       </c>
       <c r="X8" t="n">
-        <v>2066.07424121448</v>
+        <v>868.363589965609</v>
       </c>
       <c r="Y8" t="n">
-        <v>1669.583532135081</v>
+        <v>471.8728808862101</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>305.4650404492652</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>789.0311263475785</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1374.529131354181</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.2900019614187</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>684.084884027408</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>528.4517709299226</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>372.8929587891251</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>558.8796580964973</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>455.6330499762015</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1580.711427684574</v>
+        <v>1549.258117997884</v>
       </c>
       <c r="C11" t="n">
-        <v>1282.476607474693</v>
+        <v>1251.023297788003</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>960.522850291859</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784258</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="F11" t="n">
         <v>652.8800066955919</v>
@@ -5033,7 +5033,7 @@
         <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,10 +5069,10 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.823590280621</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002408</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V11" t="n">
         <v>2497.845413993114</v>
@@ -5081,10 +5081,10 @@
         <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2187.815519900993</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1886.265492108783</v>
+        <v>1854.812182422092</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N12" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551001</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979808</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443716</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445329</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311668</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798491</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
         <v>300.2831496757665</v>
@@ -5218,7 +5218,7 @@
         <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852099</v>
+        <v>850.66272518521</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553814</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1871.211875180718</v>
+        <v>1625.725108676625</v>
       </c>
       <c r="C14" t="n">
         <v>1572.977054970837</v>
@@ -5261,13 +5261,13 @@
         <v>1282.476607474693</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784262</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955923</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707839</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H14" t="n">
         <v>105.5155633244624</v>
@@ -5306,22 +5306,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>2905.823590280621</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2745.011542002408</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>2745.011542002408</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2745.011542002408</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2478.315967397137</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>2176.765939604927</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.973980501895</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5416,13 +5416,13 @@
         <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G16" t="n">
         <v>160.810741531167</v>
@@ -5437,13 +5437,13 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757664</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791391</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469765</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
@@ -5467,19 +5467,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553818</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
@@ -5504,19 +5504,19 @@
         <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292424</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5552,13 +5552,13 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N18" t="n">
-        <v>2262.088962721623</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O18" t="n">
-        <v>2262.088962721623</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5683,7 +5683,7 @@
         <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
         <v>974.9038003296503</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.973980501895</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5908,16 +5908,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229885</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446693</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184691</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
         <v>812.1990332879423</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>568.1699486069232</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6148,22 +6148,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072216</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
-        <v>965.7235964838002</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6203,16 +6203,16 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218611</v>
+        <v>986.0794951218605</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390272</v>
+        <v>664.1257379390266</v>
       </c>
       <c r="G26" t="n">
         <v>345.9036637142181</v>
@@ -6224,19 +6224,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
         <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614364</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658945</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
         <v>2893.292664647882</v>
@@ -6251,10 +6251,10 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6266,10 +6266,10 @@
         <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640573</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755026</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286451</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6446,46 +6446,46 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J29" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S29" t="n">
         <v>3596.670073605752</v>
@@ -6494,7 +6494,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
         <v>3060.131976164851</v>
@@ -6506,7 +6506,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>123.8559155359222</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>607.4220014342354</v>
       </c>
       <c r="M30" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1640.815019777314</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084638</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634093</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144925</v>
+        <v>890.2201666674343</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423743</v>
+        <v>590.5275805474768</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282816</v>
+        <v>294.5666773855446</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267653</v>
+        <v>87.68547930209945</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.1999876534571</v>
       </c>
       <c r="K32" t="n">
-        <v>598.6915723973043</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1200.502371756219</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1746.5032718008</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2274.314555438262</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2714.35415633059</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3171.032156102498</v>
+        <v>3142.665177090498</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243447</v>
+        <v>3327.510737231447</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152272</v>
+        <v>3327.510737231447</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491227</v>
+        <v>3278.199034522562</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448548</v>
+        <v>3171.900284432044</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.44439528105</v>
+        <v>3033.349407216707</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.44445027029</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748665</v>
+        <v>2554.647267588643</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871764</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398131</v>
+        <v>2003.10765814243</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="K33" t="n">
-        <v>68.54262738304544</v>
+        <v>323.4000413040139</v>
       </c>
       <c r="L33" t="n">
-        <v>552.1087132813586</v>
+        <v>806.9661272023271</v>
       </c>
       <c r="M33" t="n">
-        <v>1179.88036290804</v>
+        <v>806.9661272023271</v>
       </c>
       <c r="N33" t="n">
-        <v>1835.658334118599</v>
+        <v>1462.744098412886</v>
       </c>
       <c r="O33" t="n">
-        <v>2352.17861670958</v>
+        <v>1979.264381003867</v>
       </c>
       <c r="P33" t="n">
-        <v>2352.17861670958</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590201</v>
+        <v>341.6872565554795</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229134</v>
+        <v>288.6839909715333</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233322</v>
+        <v>250.2527302241128</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804388</v>
+        <v>211.8957704333799</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913158</v>
+        <v>171.7716879964175</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886654</v>
+        <v>120.7194864459277</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806348</v>
+        <v>82.44278775748639</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304544</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259937</v>
+        <v>66.55021474462895</v>
       </c>
       <c r="K34" t="n">
-        <v>287.5013270395273</v>
+        <v>162.2350636228036</v>
       </c>
       <c r="L34" t="n">
-        <v>451.6289669133271</v>
+        <v>326.3627034966033</v>
       </c>
       <c r="M34" t="n">
-        <v>746.4110528919769</v>
+        <v>512.6542818348673</v>
       </c>
       <c r="N34" t="n">
-        <v>1038.091194563572</v>
+        <v>810.7134513543749</v>
       </c>
       <c r="O34" t="n">
-        <v>1200.79596160528</v>
+        <v>1088.287753884381</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381858</v>
+        <v>1323.033455149258</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392295</v>
+        <v>1326.455651519309</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422776</v>
+        <v>1319.756514501951</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.25436700323</v>
+        <v>1234.142283034565</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569368</v>
+        <v>1115.625083552864</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209173</v>
+        <v>947.3881441448292</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279011</v>
+        <v>798.6106513157181</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569827</v>
+        <v>632.4821015969603</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378699</v>
+        <v>515.603631730008</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524173</v>
+        <v>409.6934228967161</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6968,16 +6968,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>658.8001958221562</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>1286.571845448837</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N36" t="n">
-        <v>1942.349816659396</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229871</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222406</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960404</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343044</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655136</v>
+        <v>806.6193906797591</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7202,10 +7202,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>175.2341099238429</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,49 +7333,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.53381142224</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960398</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>499.9530296343038</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>683.1426636655131</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072211</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964837996</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1627.066081816728</v>
+        <v>1772.044870492822</v>
       </c>
       <c r="C41" t="n">
-        <v>1331.331832309791</v>
+        <v>1476.310620985886</v>
       </c>
       <c r="D41" t="n">
-        <v>1043.331955516592</v>
+        <v>1188.310744192686</v>
       </c>
       <c r="E41" t="n">
-        <v>738.1896826232702</v>
+        <v>883.168471299364</v>
       </c>
       <c r="F41" t="n">
-        <v>418.7364961433811</v>
+        <v>563.715284819475</v>
       </c>
       <c r="G41" t="n">
-        <v>103.0149926215175</v>
+        <v>247.9937812976113</v>
       </c>
       <c r="H41" t="n">
         <v>103.0149926215175</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.897034755326</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2821.585557180058</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="V41" t="n">
-        <v>2576.919999873709</v>
+        <v>2666.159174380161</v>
       </c>
       <c r="W41" t="n">
-        <v>2303.36221683213</v>
+        <v>2666.159174380161</v>
       </c>
       <c r="X41" t="n">
-        <v>2011.35086375532</v>
+        <v>2374.147821303352</v>
       </c>
       <c r="Y41" t="n">
-        <v>1712.301406666055</v>
+        <v>2075.098364214086</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.580372034486</v>
+        <v>475.5803720344863</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906085</v>
+        <v>402.8165060906088</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832565</v>
+        <v>344.6246449832567</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325924</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356985</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252772</v>
+        <v>155.8096001252773</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7723010769044</v>
+        <v>97.77230107690444</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,22 +7570,22 @@
         <v>127.8475561822076</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676791</v>
+        <v>305.184768367679</v>
       </c>
       <c r="L43" t="n">
-        <v>505.1989733022401</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160337</v>
+        <v>786.9927227160347</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822772</v>
+        <v>1065.684527822773</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.89146594001</v>
+        <v>1323.891465940011</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.269802792119</v>
       </c>
       <c r="Q43" t="n">
         <v>1638.194170237699</v>
@@ -7603,16 +7603,16 @@
         <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557611</v>
+        <v>825.6570181557616</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288774</v>
+        <v>689.0179479288779</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356541</v>
+        <v>563.3471387356544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1340.175609875976</v>
+        <v>1765.28441741569</v>
       </c>
       <c r="C44" t="n">
-        <v>1044.441360369039</v>
+        <v>1557.973630753168</v>
       </c>
       <c r="D44" t="n">
-        <v>756.4414835758403</v>
+        <v>1269.973753959968</v>
       </c>
       <c r="E44" t="n">
-        <v>756.4414835758403</v>
+        <v>964.8314810666461</v>
       </c>
       <c r="F44" t="n">
-        <v>436.9882970959512</v>
+        <v>645.3782945867572</v>
       </c>
       <c r="G44" t="n">
         <v>329.6567910648936</v>
@@ -7643,10 +7643,10 @@
         <v>103.0149926215175</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
         <v>565.7512566404055</v>
@@ -7667,31 +7667,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3036.884082136961</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>2910.824731686511</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="U44" t="n">
-        <v>2752.513254111243</v>
+        <v>2878.572604561692</v>
       </c>
       <c r="V44" t="n">
-        <v>2507.847696804894</v>
+        <v>2633.907047255343</v>
       </c>
       <c r="W44" t="n">
-        <v>2234.289913763315</v>
+        <v>2360.349264213763</v>
       </c>
       <c r="X44" t="n">
-        <v>1942.278560686505</v>
+        <v>2068.337911136954</v>
       </c>
       <c r="Y44" t="n">
-        <v>1643.229103597239</v>
+        <v>2068.337911136954</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>84.60386270860994</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>84.60386270860994</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>568.1699486069232</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.580372034486</v>
+        <v>475.5803720344861</v>
       </c>
       <c r="C46" t="n">
         <v>402.8165060906085</v>
@@ -7798,19 +7798,19 @@
         <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690443</v>
+        <v>97.77230107690441</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822077</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
         <v>305.1847683676791</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170085</v>
+        <v>505.1989733022401</v>
       </c>
       <c r="M46" t="n">
         <v>786.9927227160337</v>
@@ -7840,16 +7840,16 @@
         <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557611</v>
+        <v>825.6570181557613</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288774</v>
+        <v>689.0179479288777</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356541</v>
+        <v>563.3471387356542</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,10 +7985,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>416.2715670328048</v>
+        <v>655.9541253305056</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507691</v>
+        <v>195.8449201154543</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,10 +8055,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>300.3614370051856</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8067,10 +8067,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671516</v>
+        <v>535.4537921689246</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216673</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
@@ -8219,19 +8219,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107123</v>
+        <v>655.9541253305056</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>655.3475650705625</v>
       </c>
       <c r="O5" t="n">
-        <v>362.7793789722836</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>189.1021272540279</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8295,25 +8295,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>303.1516237211642</v>
+        <v>598.6161957820902</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671516</v>
+        <v>591.601186586945</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>157.3156166521997</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,22 +8456,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>634.4471913084061</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>213.6604073397399</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,7 +8532,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>236.0990445535295</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8544,10 +8544,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8772,22 +8772,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O12" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9009,7 +9009,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>165.8788395891213</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9018,13 +9018,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>326.5064297756122</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,13 +9240,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9255,10 +9255,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>405.2384673331027</v>
       </c>
       <c r="P18" t="n">
-        <v>206.6446779083334</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9489,16 +9489,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O21" t="n">
-        <v>326.5064297756122</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>163.9964000092958</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>538.5873532373481</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>603.549567405683</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>569.9919810238534</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,10 +10188,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>140.5980025943151</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10200,13 +10200,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>108.8653421701423</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10428,13 +10428,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>349.0412045852374</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10443,10 +10443,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>126.0381992661178</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
@@ -10674,16 +10674,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O36" t="n">
-        <v>535.2177063841971</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>306.543171528089</v>
       </c>
       <c r="M39" t="n">
-        <v>489.2920096079789</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,16 +11136,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11154,7 +11154,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11373,16 +11373,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>105.1563108732267</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.0244253199895</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>257.9349795978375</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>226.7962030080132</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>8.668621376273222e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>243.0318988390527</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>27.53818568273961</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>215.6399871832171</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>80.84637966960955</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,19 +25676,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812804</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>270.8222052111636</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25865,19 +25865,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>87.53922821596892</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>302.090850164389</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>206.3060975158979</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="45">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>559271.2048546859</v>
+        <v>559271.2048546862</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>559271.2048546862</v>
+        <v>559271.204854686</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>561709.7601539126</v>
+        <v>561709.7601539125</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>561709.7601539126</v>
+        <v>561709.7601539127</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>667229.0589454196</v>
       </c>
       <c r="C2" t="n">
-        <v>667229.0589454201</v>
+        <v>667229.0589454198</v>
       </c>
       <c r="D2" t="n">
         <v>667229.05894542</v>
       </c>
       <c r="E2" t="n">
-        <v>627061.6539279822</v>
+        <v>627061.6539279826</v>
       </c>
       <c r="F2" t="n">
-        <v>627061.6539279827</v>
+        <v>627061.6539279824</v>
       </c>
       <c r="G2" t="n">
+        <v>667229.0589454197</v>
+      </c>
+      <c r="H2" t="n">
         <v>667229.0589454198</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>667229.05894542</v>
       </c>
-      <c r="I2" t="n">
-        <v>667229.0589454197</v>
-      </c>
       <c r="J2" t="n">
-        <v>667229.0589454217</v>
+        <v>667229.0589454218</v>
       </c>
       <c r="K2" t="n">
-        <v>667229.0589454217</v>
+        <v>667229.0589454219</v>
       </c>
       <c r="L2" t="n">
-        <v>667229.058945419</v>
+        <v>667229.0589454202</v>
       </c>
       <c r="M2" t="n">
         <v>667229.05894542</v>
       </c>
       <c r="N2" t="n">
-        <v>667229.05894542</v>
+        <v>667229.0589454197</v>
       </c>
       <c r="O2" t="n">
-        <v>629795.7916877215</v>
+        <v>629795.7916877212</v>
       </c>
       <c r="P2" t="n">
-        <v>629795.7916877216</v>
+        <v>629795.7916877214</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343507</v>
+        <v>169649.0058765499</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602661</v>
+        <v>26460.41160941818</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377121</v>
+        <v>130452.9311377122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301436</v>
+        <v>29094.95587301438</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469665</v>
+        <v>215329.5897923933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670122</v>
+        <v>46725.80335481244</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436852</v>
+        <v>43782.9719455567</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.5598301568</v>
+        <v>18983.55983015674</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>170591.5484883815</v>
+        <v>177303.7227646047</v>
       </c>
       <c r="C4" t="n">
-        <v>170591.5484883815</v>
+        <v>177303.7227646047</v>
       </c>
       <c r="D4" t="n">
-        <v>154346.0890704044</v>
+        <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>97239.09137183768</v>
+        <v>97239.09137183773</v>
       </c>
       <c r="F4" t="n">
         <v>97239.09137183768</v>
@@ -26439,13 +26439,13 @@
         <v>121843.4120153197</v>
       </c>
       <c r="J4" t="n">
-        <v>122593.9044797027</v>
+        <v>122593.9044797028</v>
       </c>
       <c r="K4" t="n">
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122271.0498250416</v>
+        <v>122137.6552159869</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153197</v>
@@ -26454,10 +26454,10 @@
         <v>121843.4120153197</v>
       </c>
       <c r="O4" t="n">
-        <v>98913.70727082911</v>
+        <v>98913.70727082908</v>
       </c>
       <c r="P4" t="n">
-        <v>98913.70727082915</v>
+        <v>98913.70727082909</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814947</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26494,10 +26494,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446766</v>
+        <v>60332.6753058834</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.40778255072</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>252721.652034538</v>
+        <v>255870.0026213122</v>
       </c>
       <c r="C6" t="n">
-        <v>430716.9491688891</v>
+        <v>425519.0084978623</v>
       </c>
       <c r="D6" t="n">
-        <v>424573.3902118158</v>
+        <v>416837.1009884243</v>
       </c>
       <c r="E6" t="n">
-        <v>344257.3419095232</v>
+        <v>344148.7813554223</v>
       </c>
       <c r="F6" t="n">
-        <v>474710.2730472359</v>
+        <v>474601.7124931345</v>
       </c>
       <c r="G6" t="n">
-        <v>458120.9217415661</v>
+        <v>458120.921741566</v>
       </c>
       <c r="H6" t="n">
+        <v>487215.8776145805</v>
+      </c>
+      <c r="I6" t="n">
         <v>487215.8776145806</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>265646.5194194062</v>
+      </c>
+      <c r="K6" t="n">
+        <v>480976.1092117996</v>
+      </c>
+      <c r="L6" t="n">
+        <v>438032.9250687375</v>
+      </c>
+      <c r="M6" t="n">
+        <v>443432.9056690239</v>
+      </c>
+      <c r="N6" t="n">
         <v>487215.8776145804</v>
       </c>
-      <c r="J6" t="n">
-        <v>259130.234264833</v>
-      </c>
-      <c r="K6" t="n">
-        <v>480976.1092117994</v>
-      </c>
-      <c r="L6" t="n">
-        <v>442081.7622792086</v>
-      </c>
-      <c r="M6" t="n">
-        <v>444484.6006802121</v>
-      </c>
-      <c r="N6" t="n">
-        <v>487215.8776145806</v>
-      </c>
       <c r="O6" t="n">
-        <v>456578.1168041848</v>
+        <v>456476.9458115962</v>
       </c>
       <c r="P6" t="n">
-        <v>475561.6766343418</v>
+        <v>475460.5056417531</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P2" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="C4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26814,10 +26814,10 @@
         <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443784</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880681</v>
+        <v>831.8776843078617</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26829,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126795</v>
+        <v>36.36869484126798</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087653</v>
+        <v>58.40725419351554</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165938</v>
+        <v>14.33013548902042</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.729449787696</v>
+        <v>23.72944978769593</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631012</v>
+        <v>85.1830525365167</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559191</v>
+        <v>646.8007142757125</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.783224045525</v>
+        <v>129.6883820257314</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126795</v>
+        <v>36.36869484126798</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631012</v>
+        <v>85.1830525365167</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>294.3655852784799</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.8430664591955</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>62.57148239935015</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>83.64808209757589</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>146.4182780610957</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>104.0045570257511</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>37.9738988040761</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>56.13289260024499</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27679,10 +27679,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27704,10 +27704,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>88.5316824791594</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>210.2485805232114</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>74.07383661019713</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27792,10 +27792,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27834,10 +27834,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>124.379181804345</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>27.26442071883741</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>126.5925423695334</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.83064772952768</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28068,16 +28068,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>178.2829560090413</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28603,7 +28603,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -28755,10 +28755,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>5.63600263452858</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668768</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>130.3599693155844</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29086,10 +29086,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155846</v>
       </c>
       <c r="U23" t="n">
         <v>130.3599693155844</v>
@@ -29220,25 +29220,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.636002634528637</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>5.636002634528467</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L26" t="n">
+        <v>93.99127447431644</v>
+      </c>
+      <c r="M26" t="n">
+        <v>93.99127447431644</v>
+      </c>
+      <c r="N26" t="n">
         <v>30.27223765901215</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>93.99127447431646</v>
-      </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29536,10 +29536,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
@@ -29548,13 +29548,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>30.27223765901323</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>26.78466270501906</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="P32" t="n">
-        <v>109.586371353925</v>
+        <v>103.2865954513728</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>109.586371353925</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="C34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="D34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="E34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="F34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="G34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="H34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="I34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="J34" t="n">
-        <v>109.586371353925</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>58.99686212484008</v>
+        <v>13.9897048163967</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="S34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="T34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="U34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="V34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="W34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="X34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.586371353925</v>
+        <v>116.029833826564</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668753</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30177,10 +30177,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30229,7 +30229,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155842</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
         <v>130.3599693155844</v>
@@ -30405,25 +30405,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.636002634527884</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5.636002634528595</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="C43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="D43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="E43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="F43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="G43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="H43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="I43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="J43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="K43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="L43" t="n">
-        <v>36.24905561693052</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="M43" t="n">
-        <v>96.4668394702319</v>
+        <v>36.24905561693163</v>
       </c>
       <c r="N43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="O43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="P43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="R43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="S43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="T43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="U43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="V43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="W43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="X43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023186</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="C44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="D44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="E44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="F44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="G44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="H44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="I44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R44" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="T44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="U44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="V44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="W44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="X44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="C46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="D46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="E46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="F46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="G46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="H46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="I46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="J46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="K46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="L46" t="n">
-        <v>96.4668394702319</v>
+        <v>36.24905561693052</v>
       </c>
       <c r="M46" t="n">
-        <v>36.24905561693049</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="N46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="O46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="P46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="R46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="S46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="T46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="U46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="V46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="W46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="X46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,10 +34705,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>266.5465154350775</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="N2" t="n">
-        <v>531.134231712985</v>
+        <v>46.72642877767017</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>210.7645016718523</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34787,10 +34787,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>531.134231712985</v>
+        <v>450.0816793147579</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="O5" t="n">
-        <v>213.2155415481872</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>38.80068001310266</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>210.7645016718523</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="N6" t="n">
-        <v>531.134231712985</v>
+        <v>506.2290737327784</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>66.32746349628569</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>485.328699970622</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>63.35896009881473</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>146.5021092201962</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35264,10 +35264,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O12" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,10 +35659,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35729,7 +35729,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>75.8184927322031</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35738,13 +35738,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>233.8188708867233</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
@@ -35975,10 +35975,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>312.5509084442139</v>
       </c>
       <c r="P18" t="n">
-        <v>119.5613130890187</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36051,10 +36051,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094874</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36209,16 +36209,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O21" t="n">
-        <v>233.8188708867233</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528606</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>213.0216270023944</v>
@@ -36288,7 +36288,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>73.93605315237758</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>453.2152403831814</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,25 +36516,25 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133861</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716073</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039233</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>511.1624453563711</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>484.6198681696868</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36844,13 +36844,13 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751656009</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700714</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>51.00106726098172</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
@@ -36920,13 +36920,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>23.49322931597565</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -37069,10 +37069,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>389.3931031367987</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>607.889696322136</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>560.5142791723504</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605127</v>
+        <v>454.9911329579605</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659175</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>259.444269251904</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
@@ -37163,10 +37163,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.0500461102038</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176595</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>141.6585198116501</v>
+        <v>96.65136250320667</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.759682806717</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288838</v>
+        <v>301.0698682015228</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>280.3780833636429</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>237.1168699645222</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640775</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O36" t="n">
-        <v>442.5301474953082</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634528463</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37473,10 +37473,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905433</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634527946</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>216.4828246711707</v>
       </c>
       <c r="M39" t="n">
-        <v>396.904887558667</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133786</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37716,10 +37716,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724868</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37874,7 +37874,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807283</v>
+        <v>66.3923519980728</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570418</v>
       </c>
       <c r="L43" t="n">
-        <v>202.0345504389505</v>
+        <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230238</v>
+        <v>224.4223670697236</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451907</v>
+        <v>281.5068738451906</v>
       </c>
       <c r="O43" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081901</v>
+        <v>217.55387560819</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038439</v>
+        <v>99.92360348038434</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110602</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>22.71185353989332</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>633.6373032706776</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,10 +38178,10 @@
         <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922519</v>
+        <v>202.0345504389505</v>
       </c>
       <c r="M46" t="n">
-        <v>224.4223670697224</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
         <v>281.5068738451907</v>
@@ -38193,7 +38193,7 @@
         <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038439</v>
+        <v>99.92360348038437</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
